--- a/dataset/squid-tweets/squid-dataset.xlsx
+++ b/dataset/squid-tweets/squid-dataset.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\vin\Projects\cancelled\dataset\squid-tweets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE1FEA-00CA-49E7-A91C-C4B2BAA7B83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2B6D1-840A-48AD-AF1A-6E3E45071FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1025</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -3800,10 +3803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A902" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C905" sqref="C905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3821,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3876,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4041,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4052,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4151,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4206,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4228,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4503,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4599,7 +4603,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4632,10 +4636,10 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4665,10 +4669,10 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4676,10 +4680,10 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4687,10 +4691,10 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4789,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4844,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4932,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4943,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>101</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5017,10 +5021,10 @@
         <v>107</v>
       </c>
       <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5028,10 +5032,10 @@
         <v>108</v>
       </c>
       <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5050,10 +5054,10 @@
         <v>110</v>
       </c>
       <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5083,10 +5087,10 @@
         <v>113</v>
       </c>
       <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5185,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5193,10 +5197,10 @@
         <v>123</v>
       </c>
       <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5229,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5259,10 +5263,10 @@
         <v>129</v>
       </c>
       <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5358,10 +5362,10 @@
         <v>138</v>
       </c>
       <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5369,10 +5373,10 @@
         <v>139</v>
       </c>
       <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5449,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5490,10 +5494,10 @@
         <v>150</v>
       </c>
       <c r="C153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5537,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5658,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5787,10 +5791,10 @@
         <v>177</v>
       </c>
       <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5823,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5889,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5977,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5985,10 +5989,10 @@
         <v>194</v>
       </c>
       <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6065,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6087,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6142,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6172,10 +6176,10 @@
         <v>211</v>
       </c>
       <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6205,10 +6209,10 @@
         <v>214</v>
       </c>
       <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>218</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6348,7 +6352,7 @@
         <v>227</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6381,10 +6385,10 @@
         <v>229</v>
       </c>
       <c r="C234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6439,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>234</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6505,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6582,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6714,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6755,10 +6759,10 @@
         <v>261</v>
       </c>
       <c r="C268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6791,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6857,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6876,10 +6880,10 @@
         <v>270</v>
       </c>
       <c r="C279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6956,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6967,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6975,10 +6979,10 @@
         <v>278</v>
       </c>
       <c r="C288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6989,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7008,10 +7012,10 @@
         <v>281</v>
       </c>
       <c r="C291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7019,10 +7023,10 @@
         <v>282</v>
       </c>
       <c r="C292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7030,10 +7034,10 @@
         <v>283</v>
       </c>
       <c r="C293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>284</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7077,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>288</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7099,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7107,10 +7111,10 @@
         <v>290</v>
       </c>
       <c r="C300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>177</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7132,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7176,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7209,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7231,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7242,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7462,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7470,10 +7474,10 @@
         <v>321</v>
       </c>
       <c r="C333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7481,7 +7485,7 @@
         <v>322</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7506,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7682,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7803,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7847,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -7869,7 +7873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8012,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8166,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8177,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8364,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -8529,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -8606,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -8639,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -8683,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -8782,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -8804,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -8859,7 +8863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9079,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9090,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -9123,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -9200,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -9211,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -9222,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -9244,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -9266,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -9321,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -9354,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -9398,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -9453,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -9475,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -9497,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -9508,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -9530,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -9541,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -9574,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -9596,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -9607,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -9618,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -9684,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -9695,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -9849,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -9937,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -9948,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -10014,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -10036,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -10047,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -10069,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -10113,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -10168,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -10190,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -10212,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -10223,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -10245,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -10344,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -10355,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -10377,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -10388,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -10465,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -10476,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -10520,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -10575,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -10597,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -10630,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -10729,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -10795,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -10806,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -10828,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -10839,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -10861,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -10894,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -10938,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -10971,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -11004,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -11092,7 +11096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -11103,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -11114,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -11125,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -11158,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -11169,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -11246,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -11257,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -11268,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -11279,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -11301,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -11367,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -11378,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -11389,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -11400,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -11422,7 +11426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -11444,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -11455,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -11466,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -11532,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -11543,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -11554,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -11598,7 +11602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -11609,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -11631,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -11653,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -11686,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -11708,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -11719,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -11807,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -11818,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -11862,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -11950,7 +11954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -11961,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -11972,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -12005,7 +12009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -12016,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -12027,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -12093,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -12104,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -12148,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -12159,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -12181,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -12192,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -12225,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -12247,7 +12251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -12258,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -12324,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -12368,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -12379,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -12423,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -12434,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -12456,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -12467,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -12478,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -12566,7 +12570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -12632,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -12709,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -12731,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -12742,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -12753,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -12764,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -12830,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -12841,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -12863,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -12874,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -12896,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -12907,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -12918,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -12929,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -12940,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -12973,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -12984,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -13028,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -13039,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -13061,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -13083,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -13094,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -13138,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -13215,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -13248,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -13259,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -13292,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -13303,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -13314,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -13336,7 +13340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -13369,7 +13373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -13380,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -13446,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -13501,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -13545,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -13567,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -13578,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -13611,7 +13615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -13666,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -13765,7 +13769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -13776,7 +13780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -13787,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -13842,7 +13846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -13974,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -14007,7 +14011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -14029,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -14040,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -14051,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -14073,7 +14077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -14095,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -14136,7 +14140,7 @@
         <v>899</v>
       </c>
       <c r="C939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
@@ -14150,7 +14154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -14169,10 +14173,10 @@
         <v>902</v>
       </c>
       <c r="C942">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>904</v>
       </c>
       <c r="C944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
@@ -14202,7 +14206,7 @@
         <v>905</v>
       </c>
       <c r="C945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
@@ -14216,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -14238,7 +14242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -14257,7 +14261,7 @@
         <v>910</v>
       </c>
       <c r="C950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
@@ -14268,10 +14272,10 @@
         <v>911</v>
       </c>
       <c r="C951">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -14282,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -14293,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -14304,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -14337,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -14403,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>962</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>963</v>
       </c>
@@ -14433,10 +14437,10 @@
         <v>926</v>
       </c>
       <c r="C966">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>965</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>966</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>967</v>
       </c>
@@ -14488,7 +14492,7 @@
         <v>931</v>
       </c>
       <c r="C971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
@@ -14499,10 +14503,10 @@
         <v>932</v>
       </c>
       <c r="C972">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>971</v>
       </c>
@@ -14513,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -14535,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -14546,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>978</v>
       </c>
@@ -14590,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>979</v>
       </c>
@@ -14609,10 +14613,10 @@
         <v>942</v>
       </c>
       <c r="C982">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>981</v>
       </c>
@@ -14631,7 +14635,7 @@
         <v>944</v>
       </c>
       <c r="C984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -14642,7 +14646,7 @@
         <v>945</v>
       </c>
       <c r="C985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -14653,10 +14657,10 @@
         <v>946</v>
       </c>
       <c r="C986">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>985</v>
       </c>
@@ -14675,7 +14679,7 @@
         <v>948</v>
       </c>
       <c r="C988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
@@ -14686,7 +14690,7 @@
         <v>949</v>
       </c>
       <c r="C989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
@@ -14700,7 +14704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>989</v>
       </c>
@@ -14722,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>991</v>
       </c>
@@ -14741,7 +14745,7 @@
         <v>953</v>
       </c>
       <c r="C994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
@@ -14763,7 +14767,7 @@
         <v>955</v>
       </c>
       <c r="C996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
@@ -14777,7 +14781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>996</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>998</v>
       </c>
@@ -14818,7 +14822,7 @@
         <v>960</v>
       </c>
       <c r="C1001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
@@ -14832,7 +14836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
         <v>1001</v>
       </c>
@@ -14843,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
         <v>1002</v>
       </c>
@@ -14854,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>1003</v>
       </c>
@@ -14865,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>1004</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>1005</v>
       </c>
@@ -14898,7 +14902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>1007</v>
       </c>
@@ -14942,7 +14946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>1011</v>
       </c>
@@ -14953,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>1012</v>
       </c>
@@ -14964,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>1013</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>1014</v>
       </c>
@@ -14994,10 +14998,10 @@
         <v>975</v>
       </c>
       <c r="C1017">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>1016</v>
       </c>
@@ -15008,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>1017</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>1018</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>1020</v>
       </c>
@@ -15052,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>1021</v>
       </c>
@@ -15063,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>1022</v>
       </c>
@@ -15074,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>1023</v>
       </c>
@@ -15086,6 +15090,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1025" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>